--- a/docs/PTA2_DDC_100/PTA2_DDC_100_12.08.24_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_12.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731788390.5010006</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731788393.933677</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731788390.5010006.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731788393.933677.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.63</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.21</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5799999999999841</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731788395.3907127</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731788399.1546104</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731788395.3907127.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731788399.1546104.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278.24</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278.71</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.4699999999999704</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731788399.486566</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731788399.486566.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731788399.486566.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>279.5</v>
       </c>
-      <c r="J5" t="n">
-        <v>279.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>280.15</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.6499999999999773</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731788401.3792415</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731788404.239857</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788401.3792415.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788404.239857.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>277.63</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>278.21</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.5799999999999841</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731788405.4655774</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731788408.668036</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788405.4655774.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788408.668036.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>278.24</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>278.71</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.4699999999999704</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731788408.944297</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731788410.6287766</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788408.944297.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788410.6287766.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>279.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>278.48</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.019999999999982</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731788410.6417415</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731788414.3218246</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788410.6417415.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788414.3218246.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>278.48</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>278.89</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.4099999999999682</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731788416.9630032</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731788419.2204068</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788416.9630032.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788419.2204068.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>279.34</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>279.64</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.3000000000000114</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -947,95 +1011,107 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731788420.320447</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731788420.320447.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731788420.320447.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>280.6</v>
       </c>
-      <c r="J11" t="n">
-        <v>280.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>281.03</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.42999999999995</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731788422.3361452</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731788423.7068455</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788422.3361452.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788423.7068455.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>127.7</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>128.32</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.6199999999999903</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -1043,51 +1119,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731788424.6143837</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731788426.3699682</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788424.6143837.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788426.3699682.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>127.45</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>127.74</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.289999999999992</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731788428.948401</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731788429.8742604</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788428.948401.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788429.8742604.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>127.89</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>127.84</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1147,95 +1235,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731788432.3655255</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731788432.3655255.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731788432.3655255.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>128.56</v>
       </c>
-      <c r="J15" t="n">
-        <v>128.56</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>128.91</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.3499999999999943</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731788436.2744372</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731788439.3333507</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788436.2744372.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788439.3333507.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6352.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6345.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-7</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1243,95 +1343,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731788440.3998866</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731788440.3998866.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731788440.3998866.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6349.5</v>
       </c>
-      <c r="J17" t="n">
-        <v>6349.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>6429</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-79.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-1.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731788447.9339426</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731788451.214164</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788447.9339426.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788451.214164.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>497.6</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>497.65</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.04999999999995453</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1339,51 +1451,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731788452.2613735</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731788454.532048</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788452.2613735.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788454.532048.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>498.2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>498</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1391,95 +1509,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731788456.148163</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731788456.148163.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731788456.148163.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>500.6</v>
       </c>
-      <c r="J20" t="n">
-        <v>500.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>501.85</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731788458.3065448</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731788461.3441794</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731788458.3065448.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731788461.3441794.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>224.22</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>224.43</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.210000000000008</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1487,51 +1617,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731788461.4987683</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731788461.5935674</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731788461.4987683.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731788461.5935674.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>224.76</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>224.25</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.5099999999999909</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1539,51 +1675,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731788462.1239085</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731788462.4538667</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731788462.1239085.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731788462.4538667.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>224.77</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>224.23</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.5400000000000205</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1591,95 +1733,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731788462.8652732</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731788462.8652732.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731788462.8652732.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>225</v>
       </c>
-      <c r="J24" t="n">
-        <v>225</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>226.62</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-1.620000000000005</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731788475.1112547</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731788476.486439</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788475.1112547.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788476.486439.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1015.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1015.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1687,51 +1841,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731788477.2134187</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731788478.7123976</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788477.2134187.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788478.7123976.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1018.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1017.6</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1739,95 +1899,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731788479.2078402</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731788479.2078402.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731788479.2078402.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1021.8</v>
       </c>
-      <c r="J27" t="n">
-        <v>1021.8</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1030.6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-8.799999999999955</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731788482.0180638</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731788484.9573216</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731788482.0180638.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731788484.9573216.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>11.911</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>11.925</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.01400000000000112</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1835,51 +2007,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731788485.005809</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731788489.4408543</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731788485.005809.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731788489.4408543.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>11.935</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>11.946</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.01099999999999923</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1887,95 +2065,107 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731788491.274455</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731788491.274455.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731788491.274455.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>11.977</v>
       </c>
-      <c r="J30" t="n">
-        <v>11.977</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>12.009</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.03200000000000003</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731788493.067334</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731788494.632475</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731788493.067334.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731788494.632475.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>123.66</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>123.32</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1983,51 +2173,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731788497.9236503</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731788499.6032572</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731788497.9236503.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731788499.6032572.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>123.8</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>123.7</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2035,95 +2231,107 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731788500.1795077</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731788500.1795077.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731788500.1795077.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>124.08</v>
       </c>
-      <c r="J33" t="n">
-        <v>124.08</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.9200000000000017</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731788504.2684274</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731788506.5296288</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788504.2684274.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788506.5296288.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>158.84</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>159.22</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2131,139 +2339,157 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731788507.7111201</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731788507.7111201.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731788507.7111201.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>159.4</v>
       </c>
-      <c r="J35" t="n">
-        <v>159.4</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>162.3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-2.900000000000006</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-1.82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731788519.042641</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731788519.042641.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731788519.042641.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>49.315</v>
       </c>
-      <c r="J36" t="n">
-        <v>49.315</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>50.225</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.9100000000000037</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731788531.2703373</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731788532.4715455</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788531.2703373.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788532.4715455.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1371</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1372.6</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2271,95 +2497,107 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731788532.5970871</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731788532.5970871.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731788532.5970871.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1374.2</v>
       </c>
-      <c r="J38" t="n">
-        <v>1374.2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1387.6</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-13.39999999999986</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.98</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731788540.0347009</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731788541.4137156</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788540.0347009.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788541.4137156.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>60.67</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>60.92</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.25</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -2367,51 +2605,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731788544.8071034</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731788545.1435752</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788544.8071034.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788545.1435752.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>61.17</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>61</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2419,51 +2663,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731788545.5764365</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731788546.0961041</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788545.5764365.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788546.0961041.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>61.21</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>61.12</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.09000000000000341</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2471,95 +2721,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731788549.557008</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731788549.557008.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731788549.557008.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>61.45</v>
       </c>
-      <c r="J42" t="n">
-        <v>61.45</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.52</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731788551.464192</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731788552.0531156</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788551.464192.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788552.0531156.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>97.31</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>96.81999999999999</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.4900000000000091</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2567,51 +2829,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731788554.346362</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731788554.476096</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788554.346362.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788554.476096.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>97.34999999999999</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>96.94</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.4099999999999966</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -2619,51 +2887,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731788554.491056</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731788554.5324612</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788554.491056.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788554.5324612.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>96.94</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2671,51 +2945,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731788555.909689</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731788559.3427494</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788555.909689.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731788559.3427494.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>97.5</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>97.72</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.2199999999999989</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -2723,95 +3003,107 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731788560.1692917</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731788560.1692917.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731788560.1692917.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="J47" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>98.26000000000001</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731788567.6492798</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731788569.3419333</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788567.6492798.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788569.3419333.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>55.49</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>55.5</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2819,95 +3111,107 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731788570.1407092</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731788570.1407092.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731788570.1407092.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>55.74</v>
       </c>
-      <c r="J49" t="n">
-        <v>55.74</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>55.97</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.2299999999999969</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731788574.0294538</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731788576.2165835</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788574.0294538.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788576.2165835.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>149.54</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>150.2</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.6599999999999966</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -2915,51 +3219,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731788577.8629432</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731788578.4632242</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788577.8629432.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788578.4632242.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>149.38</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>149.54</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2967,95 +3277,107 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731788579.4433758</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731788579.4433758.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731788579.4433758.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>150.66</v>
       </c>
-      <c r="J52" t="n">
-        <v>150.66</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>153.52</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-2.860000000000014</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-1.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731788595.770306</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731788596.3483589</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788595.770306.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788596.3483589.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>19.779</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>19.856</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.07700000000000173</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -3063,51 +3385,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731788597.8819966</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731788601.0145595</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788597.8819966.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731788601.0145595.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>19.91</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>19.941</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.03099999999999881</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3115,139 +3443,157 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731788602.675136</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731788602.675136.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731788602.675136.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>20.048</v>
       </c>
-      <c r="J55" t="n">
-        <v>20.048</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>20.035</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.01299999999999812</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731788610.152999</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731788610.152999.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731788610.152999.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>669</v>
       </c>
-      <c r="J56" t="n">
-        <v>669</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>674.45</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-5.450000000000045</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.8099999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731788615.2595432</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731788615.989529</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731788615.2595432.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731788615.989529.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>148.74</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>150.1</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>1.359999999999985</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -3255,44 +3601,50 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731788620.9722004</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731788620.9722004.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731788620.9722004.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>149.8</v>
       </c>
-      <c r="J58" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>153.96</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-4.159999999999997</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-2.78</v>
       </c>
     </row>
   </sheetData>
@@ -3353,19 +3705,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.239999999999952</v>
+        <v>0.8100000000000023</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2066666666666587</v>
+        <v>0.1350000000000004</v>
       </c>
       <c r="E2" t="n">
-        <v>0.44</v>
+        <v>0.29</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -3375,19 +3727,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8400000000000034</v>
+        <v>0.980000000000004</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1680000000000007</v>
+        <v>0.1960000000000008</v>
       </c>
       <c r="E3" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -3397,19 +3749,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9599999999999795</v>
+        <v>0.6099999999999852</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2399999999999949</v>
+        <v>0.1524999999999963</v>
       </c>
       <c r="E4" t="n">
-        <v>0.76</v>
+        <v>0.4899999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -3419,19 +3771,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.260000000000019</v>
+        <v>-0.3599999999999852</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3150000000000048</v>
+        <v>-0.08999999999999631</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5599999999999999</v>
+        <v>-0.16</v>
       </c>
       <c r="F5" t="n">
-        <v>0.14</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="6">
@@ -3441,19 +3793,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5100000000000051</v>
+        <v>0.4400000000000048</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1275000000000013</v>
+        <v>0.1100000000000012</v>
       </c>
       <c r="E6" t="n">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="F6" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
@@ -3463,19 +3815,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04600000000000293</v>
+        <v>0.05900000000000105</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01533333333333431</v>
+        <v>0.01966666666666702</v>
       </c>
       <c r="E7" t="n">
-        <v>0.23</v>
+        <v>0.2899999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -3485,19 +3837,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00300000000000189</v>
+        <v>-0.02899999999999814</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00100000000000063</v>
+        <v>-0.009666666666666046</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03</v>
+        <v>-0.24</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="9">
@@ -3507,19 +3859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4399999999999977</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1466666666666659</v>
+        <v>-0.1600000000000013</v>
       </c>
       <c r="E9" t="n">
-        <v>0.35</v>
+        <v>-0.39</v>
       </c>
       <c r="F9" t="n">
-        <v>0.12</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="10">
@@ -3529,19 +3881,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8199999999999932</v>
+        <v>-2.04000000000002</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273333333333331</v>
+        <v>-0.6800000000000068</v>
       </c>
       <c r="E10" t="n">
-        <v>0.55</v>
+        <v>-1.35</v>
       </c>
       <c r="F10" t="n">
-        <v>0.18</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="11">
@@ -3551,19 +3903,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1100000000000136</v>
+        <v>-0.5399999999999636</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03666666666667121</v>
+        <v>-0.1799999999999879</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04000000000000001</v>
+        <v>-0.19</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="12">
@@ -3573,19 +3925,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>-7.799999999999955</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3333333333333333</v>
+        <v>-2.599999999999985</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1</v>
+        <v>-0.76</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="13">
@@ -3595,19 +3947,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2499999999999432</v>
+        <v>-1.000000000000057</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08333333333331439</v>
+        <v>-0.3333333333333523</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05</v>
+        <v>-0.2</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3617,19 +3969,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.00999999999999801</v>
+        <v>-0.2399999999999949</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.004999999999999005</v>
+        <v>-0.1199999999999974</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.02</v>
+        <v>-0.43</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="15">
@@ -3639,19 +3991,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3799999999999955</v>
+        <v>-2.52000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1899999999999977</v>
+        <v>-1.260000000000005</v>
       </c>
       <c r="E15" t="n">
-        <v>0.24</v>
+        <v>-1.58</v>
       </c>
       <c r="F15" t="n">
-        <v>0.12</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="16">
@@ -3661,19 +4013,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.359999999999985</v>
+        <v>-2.800000000000011</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6799999999999926</v>
+        <v>-1.400000000000006</v>
       </c>
       <c r="E16" t="n">
-        <v>0.91</v>
+        <v>-1.87</v>
       </c>
       <c r="F16" t="n">
-        <v>0.46</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="17">
@@ -3683,19 +4035,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7</v>
+        <v>-86.5</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.5</v>
+        <v>-43.25</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.11</v>
+        <v>-1.36</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.06</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +4057,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.599999999999909</v>
+        <v>-11.79999999999995</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7999999999999545</v>
+        <v>-5.899999999999977</v>
       </c>
       <c r="E18" t="n">
-        <v>0.12</v>
+        <v>-0.86</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="19">
@@ -3727,19 +4079,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0.9100000000000037</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-0.9100000000000037</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.85</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="20">
@@ -3749,19 +4101,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-5.450000000000045</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-5.450000000000045</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.8099999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="21">
